--- a/BalanceSheet/QCOM_bal.xlsx
+++ b/BalanceSheet/QCOM_bal.xlsx
@@ -4758,7 +4758,7 @@
         <v>6523000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>4897000000.0</v>
+        <v>4512000000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>3673000000.0</v>
@@ -4885,7 +4885,7 @@
         <v>16469000000.0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>16320000000.0</v>
+        <v>15935000000.0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>15933000000.0</v>
